--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1040273.76280533</v>
+        <v>1008166.857271317</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1848583.332998798</v>
+        <v>1861185.768789561</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4215871.670841855</v>
+        <v>4178386.448855574</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10295335.50083068</v>
+        <v>10319949.52766699</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>339.8547975233099</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>120.2150929262518</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>99.34508049624269</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>75.30729779173546</v>
       </c>
     </row>
     <row r="6">
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>155.4526127311943</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>179.9269603489844</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>262.4573575443979</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903363</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.3542113413185</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>319.5194584381684</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>26.94389492651078</v>
+        <v>27.47001067514563</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.6180294004006</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.5661762382494</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1897708139312</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>225.5848285290427</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.3009637486068</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>102.1665731007174</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>53.50170169071309</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>35.42807039329314</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>152.3181986878413</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>195.9625068175369</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8727930405404</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>63.02566016107574</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>201.089163843681</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>224.2110473578499</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2713543513364</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>206.6496618758914</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>53.87467807705866</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>215.2972533038377</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.3345997681973</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>309.0773614149405</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>90.94467632157659</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>141.3836306779004</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>142.5591254424115</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7554234621014</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>96.89780243894167</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I18" t="n">
-        <v>34.7188453351548</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.556718218862144</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S18" t="n">
-        <v>142.1850271380592</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T18" t="n">
-        <v>193.7635966276314</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8369022322176</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>53.61900102323963</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>117.4286075662164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.813850247729</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>225.5650375952926</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.3345997681973</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>290.2974665263365</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1082018880815</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>1.26710025257501</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7554234621014</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>96.89780243894167</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I21" t="n">
-        <v>34.7188453351548</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.556718218862159</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S21" t="n">
-        <v>142.1850271380592</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T21" t="n">
-        <v>193.7635966276314</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8369022322176</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.6595749469737</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>12.56090922106867</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>222.2568614883001</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2464072976826</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>191.4420262610236</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="E25" t="n">
-        <v>12.25677756260361</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>8.576299198037221</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.484251193944932</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2851,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>34.71361063512837</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>74.23837614724509</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>122.0153542106075</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>131.7805068304667</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>112.5990566098928</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>77.74146402679878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>85.8512317625308</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>160.7539405631285</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>116.780615930647</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>207.9296784859477</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1579.049931616194</v>
+        <v>2075.803581887074</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1706.841064946662</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1706.841064946662</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2575.719704224029</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2321.95791886212</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2321.95791886212</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1969.189263592006</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1969.189263592006</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1579.049931616194</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>235.9284171545819</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V4" t="n">
-        <v>235.9284171545819</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>235.9284171545819</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1577.945354755378</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>1208.982837814967</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>850.7171392082162</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>464.928886609972</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>2354.684526795312</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y5" t="n">
-        <v>1964.5451948195</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2289.351746278601</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224075</v>
@@ -4840,16 +4840,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2377.011959584677</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278601</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y8" t="n">
-        <v>2289.351746278601</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4892,40 +4892,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4968,37 +4968,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
         <v>53.94298182036445</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1166.959449965771</v>
+        <v>1584.107303244706</v>
       </c>
       <c r="C11" t="n">
-        <v>797.9969330253591</v>
+        <v>1215.144786304294</v>
       </c>
       <c r="D11" t="n">
-        <v>439.7312344186087</v>
+        <v>1215.144786304294</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>1215.144786304294</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>804.1588815146866</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>386.6293751093144</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399281</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399281</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>215.7775870444393</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>564.1738308751529</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>1048.666806192622</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>1604.36513850851</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>2154.423253260176</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>2628.639895377772</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2995.698445127835</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>3194.12236969964</v>
       </c>
       <c r="R11" t="n">
-        <v>2669.933035536898</v>
+        <v>3166.37488416919</v>
       </c>
       <c r="S11" t="n">
-        <v>2669.933035536898</v>
+        <v>3000.094046391008</v>
       </c>
       <c r="T11" t="n">
-        <v>2669.933035536898</v>
+        <v>2783.360535039241</v>
       </c>
       <c r="U11" t="n">
-        <v>2669.933035536898</v>
+        <v>2529.633493813048</v>
       </c>
       <c r="V11" t="n">
-        <v>2669.933035536898</v>
+        <v>2198.570606469477</v>
       </c>
       <c r="W11" t="n">
-        <v>2317.164380266784</v>
+        <v>1970.707143308828</v>
       </c>
       <c r="X11" t="n">
-        <v>1943.698622005704</v>
+        <v>1970.707143308828</v>
       </c>
       <c r="Y11" t="n">
-        <v>1553.559290029893</v>
+        <v>1970.707143308828</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>987.960322082656</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>813.507292801529</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>664.5728831402778</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.3354281348223</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>358.8008701617073</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.1231290014983</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673427</v>
+        <v>117.924570313905</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399281</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>63.88244739399281</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>355.90602576242</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>809.9721611135011</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1391.82514579253</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>2004.785061005878</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2109.184257651465</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2475.771104479179</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2676.915881557612</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2641.129951867416</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2487.273185516061</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.331259437741</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.176923033155</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.024814801412</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.787458073211</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.935957867678</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.175659102724</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>127.5447303849784</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>127.5447303849784</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>127.5447303849784</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>127.5447303849784</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399281</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399281</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399281</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399281</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399281</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>142.367933855549</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>298.3287695220706</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>473.1567265041812</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>649.2622818508078</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>795.9079702090258</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>897.868008196104</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>897.868008196104</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>897.868008196104</v>
       </c>
       <c r="S13" t="n">
-        <v>525.0086166875648</v>
+        <v>897.868008196104</v>
       </c>
       <c r="T13" t="n">
-        <v>525.0086166875648</v>
+        <v>671.3922027841344</v>
       </c>
       <c r="U13" t="n">
-        <v>525.0086166875648</v>
+        <v>382.2292185908653</v>
       </c>
       <c r="V13" t="n">
-        <v>525.0086166875648</v>
+        <v>127.5447303849784</v>
       </c>
       <c r="W13" t="n">
-        <v>235.5914466506042</v>
+        <v>127.5447303849784</v>
       </c>
       <c r="X13" t="n">
-        <v>235.5914466506042</v>
+        <v>127.5447303849784</v>
       </c>
       <c r="Y13" t="n">
-        <v>235.5914466506042</v>
+        <v>127.5447303849784</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>808.6937513590203</v>
+        <v>1865.553283416327</v>
       </c>
       <c r="C14" t="n">
-        <v>439.7312344186087</v>
+        <v>1496.590766475915</v>
       </c>
       <c r="D14" t="n">
-        <v>439.7312344186087</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.730224273719</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.730224273719</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.730224273719</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.730224273719</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V14" t="n">
-        <v>2311.667336930148</v>
+        <v>3368.526868987454</v>
       </c>
       <c r="W14" t="n">
-        <v>1958.898681660034</v>
+        <v>3015.75821371734</v>
       </c>
       <c r="X14" t="n">
-        <v>1585.432923398954</v>
+        <v>2642.29245545626</v>
       </c>
       <c r="Y14" t="n">
-        <v>1195.293591423142</v>
+        <v>2252.153123480448</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>141.599614789977</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598708</v>
+        <v>645.9611546560948</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>986.990441879334</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1660.196134132116</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>856.4545035517832</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>687.5183206238763</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>537.4016812115406</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>389.4885876291474</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>597.8010803716834</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U16" t="n">
-        <v>308.6274700262513</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>856.4545035517832</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>856.4545035517832</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>856.4545035517832</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2432.756732104357</v>
+        <v>1698.247266113931</v>
       </c>
       <c r="C17" t="n">
-        <v>2063.794215163945</v>
+        <v>1698.247266113931</v>
       </c>
       <c r="D17" t="n">
-        <v>1705.528516557195</v>
+        <v>1339.981567507181</v>
       </c>
       <c r="E17" t="n">
-        <v>1319.740263958951</v>
+        <v>1339.981567507181</v>
       </c>
       <c r="F17" t="n">
-        <v>908.7543591693432</v>
+        <v>928.9956627175731</v>
       </c>
       <c r="G17" t="n">
-        <v>492.2547634438914</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H17" t="n">
-        <v>180.055408479305</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I17" t="n">
-        <v>88.19209906357102</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J17" t="n">
-        <v>325.7601138906743</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K17" t="n">
-        <v>802.5577892093643</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L17" t="n">
-        <v>1446.344094318909</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M17" t="n">
-        <v>2179.286948567234</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N17" t="n">
-        <v>2909.457586919646</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O17" t="n">
-        <v>3553.749377683566</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P17" t="n">
-        <v>4065.963131975636</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q17" t="n">
-        <v>4373.392570021669</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R17" t="n">
-        <v>4409.604953178551</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S17" t="n">
-        <v>4266.793205019056</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T17" t="n">
-        <v>4266.793205019056</v>
+        <v>3399.375602219357</v>
       </c>
       <c r="U17" t="n">
-        <v>4266.793205019056</v>
+        <v>3145.683898964508</v>
       </c>
       <c r="V17" t="n">
-        <v>3935.730317675485</v>
+        <v>2814.621011620937</v>
       </c>
       <c r="W17" t="n">
-        <v>3582.961662405371</v>
+        <v>2461.852356350822</v>
       </c>
       <c r="X17" t="n">
-        <v>3209.495904144291</v>
+        <v>2088.386598089743</v>
       </c>
       <c r="Y17" t="n">
-        <v>2819.356572168479</v>
+        <v>1698.247266113931</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4243502130026</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9713209318757</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0369112706244</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7994562651688</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2648982920538</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G18" t="n">
-        <v>221.1382079262947</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>123.2616398061516</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>88.19209906357102</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J18" t="n">
-        <v>111.1624765207538</v>
+        <v>146.3595258323551</v>
       </c>
       <c r="K18" t="n">
-        <v>228.5773349878955</v>
+        <v>475.7879301381644</v>
       </c>
       <c r="L18" t="n">
-        <v>799.9105850960586</v>
+        <v>613.0175281538576</v>
       </c>
       <c r="M18" t="n">
-        <v>1518.608761564131</v>
+        <v>1253.562877620961</v>
       </c>
       <c r="N18" t="n">
-        <v>1797.486802997485</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O18" t="n">
-        <v>2399.974879319096</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P18" t="n">
-        <v>2567.563897221471</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q18" t="n">
-        <v>2629.673521079431</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R18" t="n">
-        <v>2628.101078434116</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S18" t="n">
-        <v>2484.479838900723</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.759034226347</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.640951163502</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.488842931759</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.251486203557</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.399985998024</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.639687233071</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>461.4055284979951</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C19" t="n">
-        <v>292.4693455700882</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D19" t="n">
-        <v>142.3527061577525</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E19" t="n">
-        <v>88.19209906357102</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F19" t="n">
-        <v>88.19209906357102</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G19" t="n">
-        <v>88.19209906357102</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H19" t="n">
-        <v>88.19209906357102</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I19" t="n">
-        <v>88.19209906357102</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J19" t="n">
-        <v>88.95549972113493</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K19" t="n">
-        <v>220.0468382225162</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L19" t="n">
-        <v>443.3250529390612</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M19" t="n">
-        <v>689.1297475364067</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N19" t="n">
-        <v>934.524372318587</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O19" t="n">
-        <v>1145.169731061406</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P19" t="n">
-        <v>1301.892543347219</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q19" t="n">
-        <v>1326.964214835737</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R19" t="n">
-        <v>1208.349459718347</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S19" t="n">
-        <v>1005.507186740843</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T19" t="n">
-        <v>1005.507186740843</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U19" t="n">
-        <v>1005.507186740843</v>
+        <v>846.0830042674853</v>
       </c>
       <c r="V19" t="n">
-        <v>750.8226985349557</v>
+        <v>591.3985160615985</v>
       </c>
       <c r="W19" t="n">
-        <v>461.4055284979951</v>
+        <v>301.9813460246378</v>
       </c>
       <c r="X19" t="n">
-        <v>461.4055284979951</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="Y19" t="n">
-        <v>461.4055284979951</v>
+        <v>73.9917951266205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2321.923831892053</v>
+        <v>2333.305065052698</v>
       </c>
       <c r="C20" t="n">
-        <v>1952.961314951642</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D20" t="n">
-        <v>1594.695616344891</v>
+        <v>1606.076849505535</v>
       </c>
       <c r="E20" t="n">
-        <v>1208.907363746647</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F20" t="n">
-        <v>797.9214589570395</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G20" t="n">
-        <v>381.4218632315877</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H20" t="n">
-        <v>88.19209906357102</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I20" t="n">
-        <v>88.19209906357102</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J20" t="n">
-        <v>325.7601138906743</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K20" t="n">
-        <v>802.5577892093643</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L20" t="n">
-        <v>1446.34409431891</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M20" t="n">
-        <v>2179.286948567235</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N20" t="n">
-        <v>2909.457586919646</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
-        <v>3553.749377683565</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P20" t="n">
-        <v>4065.963131975636</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q20" t="n">
-        <v>4373.392570021669</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R20" t="n">
-        <v>4409.604953178551</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S20" t="n">
-        <v>4409.604953178551</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T20" t="n">
-        <v>4409.604953178551</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U20" t="n">
-        <v>4155.960304806752</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="V20" t="n">
-        <v>3824.897417463181</v>
+        <v>3483.509995353711</v>
       </c>
       <c r="W20" t="n">
-        <v>3472.128762193067</v>
+        <v>3483.509995353711</v>
       </c>
       <c r="X20" t="n">
-        <v>3098.663003931987</v>
+        <v>3110.044237092631</v>
       </c>
       <c r="Y20" t="n">
-        <v>2708.523671956175</v>
+        <v>2719.904905116819</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4243502130026</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9713209318757</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0369112706244</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7994562651688</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2648982920538</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G21" t="n">
-        <v>221.1382079262947</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
-        <v>123.2616398061516</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>88.19209906357102</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J21" t="n">
-        <v>235.9926015077585</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K21" t="n">
-        <v>615.2280446173529</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.292889253093</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M21" t="n">
-        <v>1364.943052608666</v>
+        <v>1205.938327510047</v>
       </c>
       <c r="N21" t="n">
-        <v>1643.821094042019</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O21" t="n">
-        <v>1876.720223507067</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P21" t="n">
-        <v>2359.58738236298</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
-        <v>2629.673521079431</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R21" t="n">
-        <v>2628.101078434116</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S21" t="n">
-        <v>2484.479838900723</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.759034226347</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.640951163502</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.488842931759</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.251486203557</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.399985998024</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.639687233071</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>269.2228911525028</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C22" t="n">
-        <v>269.2228911525028</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D22" t="n">
-        <v>269.2228911525028</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E22" t="n">
-        <v>269.2228911525028</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F22" t="n">
-        <v>269.2228911525028</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G22" t="n">
-        <v>100.8798861555596</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H22" t="n">
-        <v>100.8798861555596</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I22" t="n">
-        <v>88.19209906357102</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J22" t="n">
-        <v>88.95549972113491</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K22" t="n">
-        <v>220.0468382225161</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L22" t="n">
-        <v>443.325052939061</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M22" t="n">
-        <v>689.1297475364066</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N22" t="n">
-        <v>934.5243723185869</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O22" t="n">
-        <v>1145.169731061406</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P22" t="n">
-        <v>1301.892543347219</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q22" t="n">
-        <v>1326.964214835737</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R22" t="n">
-        <v>1326.964214835737</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S22" t="n">
-        <v>1326.964214835737</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T22" t="n">
-        <v>1102.462334544525</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U22" t="n">
-        <v>813.3245493953502</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="V22" t="n">
-        <v>558.6400611894634</v>
+        <v>591.3985160615985</v>
       </c>
       <c r="W22" t="n">
-        <v>269.2228911525028</v>
+        <v>301.9813460246378</v>
       </c>
       <c r="X22" t="n">
-        <v>269.2228911525028</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="Y22" t="n">
-        <v>269.2228911525028</v>
+        <v>73.9917951266205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5977,64 +5977,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N24" t="n">
-        <v>2013.406634128704</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>2292.946699347402</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P24" t="n">
-        <v>2497.969180129611</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>579.0685056491545</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C25" t="n">
-        <v>410.1323227212476</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D25" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6180,19 +6180,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>981.5095496229244</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>760.7169704793943</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,16 +6223,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6247,31 +6247,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011339</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N27" t="n">
-        <v>1296.555866665167</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>385.5899330013836</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C28" t="n">
-        <v>385.5899330013836</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D28" t="n">
-        <v>385.5899330013836</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>385.5899330013836</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6417,19 +6417,19 @@
         <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383442</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V28" t="n">
-        <v>675.0071030383442</v>
+        <v>962.6364981945386</v>
       </c>
       <c r="W28" t="n">
-        <v>385.5899330013836</v>
+        <v>962.6364981945386</v>
       </c>
       <c r="X28" t="n">
-        <v>385.5899330013836</v>
+        <v>962.6364981945386</v>
       </c>
       <c r="Y28" t="n">
-        <v>385.5899330013836</v>
+        <v>741.8439190510085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>861.4909633328887</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>1298.996260473455</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1263.932007306658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>1043.139428163128</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,31 +6721,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115523</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4169.284890254081</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>4000.348707326174</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3850.232067913838</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3702.318974331445</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3702.318974331445</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3534.143652651266</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4571.72593422785</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>4571.72593422785</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>4571.72593422785</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4571.72593422785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>4350.93335508432</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,16 +6940,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>665.6859735286132</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C37" t="n">
-        <v>665.6859735286132</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D37" t="n">
-        <v>542.438140992646</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X37" t="n">
-        <v>665.6859735286132</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="Y37" t="n">
-        <v>665.6859735286132</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="38">
@@ -7168,7 +7168,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028562</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7268,10 +7268,10 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2227.840212610279</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2432.862693392488</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>359.1696912903951</v>
+        <v>527.8027887886594</v>
       </c>
       <c r="C40" t="n">
-        <v>359.1696912903951</v>
+        <v>358.8666058607525</v>
       </c>
       <c r="D40" t="n">
-        <v>359.1696912903951</v>
+        <v>358.8666058607525</v>
       </c>
       <c r="E40" t="n">
-        <v>359.1696912903951</v>
+        <v>210.9535122783594</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>210.9535122783594</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="X40" t="n">
-        <v>437.6964226305959</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="Y40" t="n">
-        <v>359.1696912903951</v>
+        <v>709.4512536188992</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,28 +7402,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7435,7 +7435,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>330.8254548799445</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C43" t="n">
-        <v>330.8254548799445</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D43" t="n">
-        <v>330.8254548799445</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>874.927113122792</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V43" t="n">
-        <v>620.2426249169051</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W43" t="n">
-        <v>330.8254548799445</v>
+        <v>1112.753137606874</v>
       </c>
       <c r="X43" t="n">
-        <v>330.8254548799445</v>
+        <v>1112.753137606874</v>
       </c>
       <c r="Y43" t="n">
-        <v>330.8254548799445</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7733,16 +7733,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.773754790662</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>2302.237516093321</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>879.2482765610114</v>
+        <v>383.3526312522299</v>
       </c>
       <c r="C46" t="n">
-        <v>710.3120936331045</v>
+        <v>383.3526312522299</v>
       </c>
       <c r="D46" t="n">
-        <v>560.1954542207687</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
         <v>265.3924131404652</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1288.886292289268</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>1288.886292289268</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W46" t="n">
-        <v>1288.886292289268</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X46" t="n">
-        <v>1060.896741391251</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y46" t="n">
-        <v>1060.896741391251</v>
+        <v>565.0010960824696</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>28.33919200008306</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>305.182175522374</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928696</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>163.1635867359952</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>79.33192306650908</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>373.3221685419826</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,16 +9485,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>290.7712488666683</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>48.10560617264096</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q24" t="n">
-        <v>38.86002301949857</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,16 +9962,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>285.1031356539329</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>234.4116509503166</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524669994</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,13 +10202,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>38.86002301949884</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>104.6241510367944</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,10 +11144,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11393,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>29.47535963978268</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -22555,7 +22555,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>42.07557254895193</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,22 +22594,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>96.23322743140598</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22725,10 +22725,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,28 +22749,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>125.6900249618416</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>131.0703856053966</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>310.9306408643181</v>
       </c>
     </row>
     <row r="6">
@@ -22950,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22998,16 +22998,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>96.68503059263367</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>185.3459314220231</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23080,7 +23080,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>65.29490092573701</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23202,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229441</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>135.3553342543432</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>27.53450764830092</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>123.6561401883703</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>82.39538786185551</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>167.1169375972939</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>154.4561466672649</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>129.1656554187737</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>31.56442760231838</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>12.97296450542738</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>137.9932954615212</v>
       </c>
       <c r="S13" t="n">
-        <v>11.05637510633795</v>
+        <v>208.7844338901268</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>148.0333797447915</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6037244977530491</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>96.01048066168096</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>71.22574503275328</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5.102082760010092</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1028265769112</v>
+        <v>70.09273767255453</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1082018880815</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23892,28 +23892,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>92.81496162332954</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.6595749469737</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>150.3897769216911</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>115.4115131709638</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>222.2568614883001</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2464072976826</v>
+        <v>60.69561706280436</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>18.77989488860402</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>96.0467590815867</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>141.3836306779004</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1028265769112</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>326.4851582175599</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>150.3897769216911</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>102.8506039498951</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>117.4286075662165</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S22" t="n">
-        <v>200.8138502477291</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>60.69561706280444</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>30.12558851170024</v>
       </c>
       <c r="E25" t="n">
-        <v>134.1771850839656</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24420,10 +24420,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.844748824894</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>250.6533921298831</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>190.9960447539088</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>74.67545222029104</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>26.60011880760486</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>93.92914855857046</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>53.89451185348474</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.843189325296</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>60.58273088403837</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>125.7690577734625</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>31.83485708756534</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>78.30767391262964</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>752713.4422151154</v>
+        <v>752713.4422151153</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>752713.4422151153</v>
+        <v>752713.4422151152</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752713.4422151153</v>
+        <v>809681.4528137742</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752713.4422151153</v>
+        <v>867621.1222624921</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>944690.1490936391</v>
+        <v>867621.1222624923</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>944690.1490936392</v>
+        <v>867621.1222624923</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>993665.8861845452</v>
+        <v>993665.8861845454</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>993665.8861845454</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>993665.8861845451</v>
+        <v>993665.8861845454</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>993665.8861845452</v>
+        <v>993665.8861845454</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="C2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="E2" t="n">
-        <v>303610.2405165454</v>
+        <v>328900.6446412014</v>
       </c>
       <c r="F2" t="n">
-        <v>303610.2405165453</v>
+        <v>354622.4384779895</v>
       </c>
       <c r="G2" t="n">
-        <v>388837.7912124796</v>
+        <v>354622.4384779896</v>
       </c>
       <c r="H2" t="n">
-        <v>388837.7912124796</v>
+        <v>354622.4384779895</v>
       </c>
       <c r="I2" t="n">
+        <v>410580.5127245943</v>
+      </c>
+      <c r="J2" t="n">
         <v>410580.5127245944</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>410580.5127245942</v>
-      </c>
-      <c r="K2" t="n">
-        <v>410580.5127245943</v>
       </c>
       <c r="L2" t="n">
         <v>410580.5127245943</v>
@@ -26352,7 +26352,7 @@
         <v>410580.5127245943</v>
       </c>
       <c r="O2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="P2" t="n">
         <v>410580.5127245943</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>123022.0575261916</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>122192.1638359284</v>
       </c>
       <c r="G3" t="n">
-        <v>397686.3454566923</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>99295.86104592192</v>
+        <v>255532.1595990993</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>30961.93223513097</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>30950.65265136629</v>
       </c>
       <c r="O3" t="n">
-        <v>103026.0539211864</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>44802.65617556861</v>
       </c>
       <c r="E4" t="n">
-        <v>44802.6561755686</v>
+        <v>42822.33557352064</v>
       </c>
       <c r="F4" t="n">
-        <v>44802.65617556861</v>
+        <v>40808.29226915613</v>
       </c>
       <c r="G4" t="n">
-        <v>38131.47536491275</v>
+        <v>40808.29226915613</v>
       </c>
       <c r="H4" t="n">
-        <v>38131.47536491274</v>
+        <v>40808.29226915613</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="P4" t="n">
         <v>36432.48351773395</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>59117.03032849824</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="G5" t="n">
-        <v>83121.46425552088</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="H5" t="n">
-        <v>83121.46425552088</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-414019.3729369771</v>
+        <v>-420087.7866827963</v>
       </c>
       <c r="C6" t="n">
-        <v>175948.5062775674</v>
+        <v>169880.0925317483</v>
       </c>
       <c r="D6" t="n">
-        <v>175948.5062775673</v>
+        <v>169880.0925317483</v>
       </c>
       <c r="E6" t="n">
-        <v>209576.1062775673</v>
+        <v>99075.11242548871</v>
       </c>
       <c r="F6" t="n">
-        <v>209576.1062775672</v>
+        <v>118811.1776273627</v>
       </c>
       <c r="G6" t="n">
-        <v>-130101.4938646463</v>
+        <v>241003.3414632912</v>
       </c>
       <c r="H6" t="n">
-        <v>267584.851592046</v>
+        <v>241003.3414632911</v>
       </c>
       <c r="I6" t="n">
-        <v>182864.842212222</v>
+        <v>25653.9523993228</v>
       </c>
       <c r="J6" t="n">
-        <v>105737.4840655508</v>
+        <v>104762.8928058291</v>
       </c>
       <c r="K6" t="n">
-        <v>282160.7032581437</v>
+        <v>281186.111998422</v>
       </c>
       <c r="L6" t="n">
-        <v>282160.7032581437</v>
+        <v>281186.1119984221</v>
       </c>
       <c r="M6" t="n">
-        <v>282160.7032581437</v>
+        <v>250224.1797632911</v>
       </c>
       <c r="N6" t="n">
-        <v>282160.7032581437</v>
+        <v>250235.4593470558</v>
       </c>
       <c r="O6" t="n">
-        <v>179134.6493369572</v>
+        <v>281186.1119984221</v>
       </c>
       <c r="P6" t="n">
-        <v>282160.7032581437</v>
+        <v>281186.1119984221</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>484.6958857368675</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="G3" t="n">
-        <v>738.3242645507756</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="H3" t="n">
-        <v>738.3242645507755</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26776,7 +26776,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>798.5305924249101</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
-        <v>1102.401238294638</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="H4" t="n">
-        <v>1102.401238294638</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>106.9522215197808</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>108.780214601196</v>
       </c>
       <c r="G3" t="n">
-        <v>360.580600333689</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>92.05814090332478</v>
+        <v>236.9063051160367</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>124.2433196703545</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>126.3668466578462</v>
       </c>
       <c r="G4" t="n">
-        <v>428.1139655400822</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>112.8124049589355</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>124.2433196703543</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>126.3668466578462</v>
       </c>
       <c r="O4" t="n">
-        <v>428.1139655400824</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>124.2433196703545</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>126.3668466578462</v>
       </c>
       <c r="O4" t="n">
-        <v>428.1139655400822</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.948526173816551</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>19.95534367759876</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>75.12055531606266</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>165.3787233449627</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>247.8598362826174</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>307.4920441745557</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>342.1441465181658</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>347.6803965095221</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>328.3047393686337</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>280.2004994525376</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>210.4189058527323</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>122.3991072660041</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>44.40204018584471</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>8.529673325881959</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1558820939053241</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.042553414603828</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>10.06887113577908</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>35.89493116070199</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>98.49843466658363</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>168.3495134450401</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>226.366696447204</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>264.1592577265928</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>271.1507672482123</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>248.0499784298854</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>199.0819761623749</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>133.0810288536396</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>64.72976375934999</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>19.36497241599653</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>4.202221877284727</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.06858904043446241</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.874041761164843</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>7.7710258401747</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>26.28481950848456</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>61.79475251435439</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>101.5477609789699</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>129.946172382635</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>137.0100189796853</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>133.7522269607983</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>123.5418300235544</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>105.7113780957915</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>73.189078746267</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>39.30009591564829</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>15.23216414684549</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>3.734542070431601</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.04767500515444604</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.968137746937789</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H17" t="n">
-        <v>30.39744070082664</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I17" t="n">
-        <v>114.4291304888192</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J17" t="n">
-        <v>251.9169810991614</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K17" t="n">
-        <v>377.5582519270381</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L17" t="n">
-        <v>468.3943974998856</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M17" t="n">
-        <v>521.1790171569904</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N17" t="n">
-        <v>529.6122385304775</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O17" t="n">
-        <v>500.0978188093648</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P17" t="n">
-        <v>426.8219181818381</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q17" t="n">
-        <v>320.5254851196284</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R17" t="n">
-        <v>186.4472827460811</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>67.63643890834494</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T17" t="n">
-        <v>12.99302298722018</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2374510197550231</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.588093701109216</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H18" t="n">
-        <v>15.3376417975548</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I18" t="n">
-        <v>54.67778751626028</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J18" t="n">
-        <v>150.0400281385685</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K18" t="n">
-        <v>256.4423061128859</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L18" t="n">
-        <v>344.8183275149637</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M18" t="n">
-        <v>402.3867241801727</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N18" t="n">
-        <v>413.0367034301552</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O18" t="n">
-        <v>377.8478903687351</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P18" t="n">
-        <v>303.2562436793554</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q18" t="n">
-        <v>202.7187678819413</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>98.60111593378099</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S18" t="n">
-        <v>29.49814396577861</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T18" t="n">
-        <v>6.401132067190213</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1044798487571853</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.331404411485005</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>11.83739558574851</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I19" t="n">
-        <v>40.03896175629453</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J19" t="n">
-        <v>94.13029189198986</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K19" t="n">
-        <v>154.6849852616215</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L19" t="n">
-        <v>197.9435249584162</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M19" t="n">
-        <v>208.7036933385085</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N19" t="n">
-        <v>203.74118598661</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O19" t="n">
-        <v>188.1879617251715</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P19" t="n">
-        <v>161.0273117308773</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>111.4869639471671</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R19" t="n">
-        <v>59.86478381095304</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S19" t="n">
-        <v>23.20274778924322</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>5.688727939981384</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07262205880827309</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.968137746937789</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H20" t="n">
-        <v>30.39744070082664</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I20" t="n">
-        <v>114.4291304888192</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J20" t="n">
-        <v>251.9169810991614</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K20" t="n">
-        <v>377.558251927038</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L20" t="n">
-        <v>468.3943974998855</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M20" t="n">
-        <v>521.1790171569904</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N20" t="n">
-        <v>529.6122385304774</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O20" t="n">
-        <v>500.0978188093648</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P20" t="n">
-        <v>426.821918181838</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q20" t="n">
-        <v>320.5254851196283</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R20" t="n">
-        <v>186.447282746081</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>67.63643890834493</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T20" t="n">
-        <v>12.99302298722018</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2374510197550231</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.588093701109215</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H21" t="n">
-        <v>15.33764179755479</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>54.67778751626027</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J21" t="n">
-        <v>150.0400281385685</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K21" t="n">
-        <v>256.4423061128859</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L21" t="n">
-        <v>344.8183275149636</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M21" t="n">
-        <v>402.3867241801726</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N21" t="n">
-        <v>413.0367034301551</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O21" t="n">
-        <v>377.8478903687351</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P21" t="n">
-        <v>303.2562436793554</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q21" t="n">
-        <v>202.7187678819413</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>98.60111593378097</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S21" t="n">
-        <v>29.49814396577861</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T21" t="n">
-        <v>6.401132067190212</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1044798487571853</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.331404411485005</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>11.83739558574851</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I22" t="n">
-        <v>40.03896175629453</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J22" t="n">
-        <v>94.13029189198984</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K22" t="n">
-        <v>154.6849852616214</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L22" t="n">
-        <v>197.9435249584161</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M22" t="n">
-        <v>208.7036933385085</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N22" t="n">
-        <v>203.74118598661</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O22" t="n">
-        <v>188.1879617251715</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P22" t="n">
-        <v>161.0273117308772</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>111.4869639471671</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R22" t="n">
-        <v>59.86478381095302</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S22" t="n">
-        <v>23.20274778924322</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>5.688727939981383</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07262205880827308</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>153.4294339903502</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>351.9153978088016</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>489.3868437550189</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>561.3114467837255</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>555.6142573249153</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>479.0067092096923</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>370.7662118687507</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>200.4282066381874</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>294.9733114832597</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>458.652661970789</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>587.7302875545744</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>619.1514295084326</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>105.453733985441</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>370.2897442704186</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535575</v>
+        <v>203.1765425034671</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>79.27826915308707</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>157.5361976429511</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>176.5938959415259</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>177.8843993400269</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>148.1269579375941</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>102.989937360685</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>68.29072693268333</v>
       </c>
       <c r="L15" t="n">
-        <v>289.2671274730081</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>344.4740274982214</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>22.96660727472377</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>239.9676917445489</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K17" t="n">
-        <v>481.6138134532223</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L17" t="n">
-        <v>650.2891970803488</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M17" t="n">
-        <v>740.3463174225502</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N17" t="n">
-        <v>737.5460993458707</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O17" t="n">
-        <v>650.7997886504235</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P17" t="n">
-        <v>517.3876305980511</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q17" t="n">
-        <v>310.5347859050836</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R17" t="n">
-        <v>36.57816480493139</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>23.20240147190179</v>
+        <v>73.09871788458038</v>
       </c>
       <c r="K18" t="n">
-        <v>118.600867138527</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L18" t="n">
-        <v>577.1042930385487</v>
+        <v>138.6157555714073</v>
       </c>
       <c r="M18" t="n">
-        <v>725.9577540081543</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N18" t="n">
-        <v>281.6949913468219</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O18" t="n">
-        <v>608.5738144662733</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P18" t="n">
-        <v>169.2818362650252</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q18" t="n">
-        <v>62.73699379591977</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7711117753170811</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>132.4154934357386</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L19" t="n">
-        <v>225.5335502187323</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M19" t="n">
-        <v>248.2875703003491</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N19" t="n">
-        <v>247.8733583658386</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O19" t="n">
-        <v>212.7730896392112</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P19" t="n">
-        <v>158.3058709957708</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.32492069547273</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>239.9676917445489</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K20" t="n">
-        <v>481.6138134532222</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L20" t="n">
-        <v>650.2891970803487</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M20" t="n">
-        <v>740.3463174225502</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N20" t="n">
-        <v>737.5460993458706</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O20" t="n">
-        <v>650.7997886504234</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P20" t="n">
-        <v>517.3876305980511</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q20" t="n">
-        <v>310.5347859050835</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R20" t="n">
-        <v>36.57816480493136</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.2934368123106</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K21" t="n">
-        <v>383.0661041511055</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L21" t="n">
-        <v>497.0351966017578</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M21" t="n">
-        <v>260.2526902581543</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N21" t="n">
-        <v>281.6949913468218</v>
+        <v>248.7689815793721</v>
       </c>
       <c r="O21" t="n">
-        <v>235.2516459242906</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P21" t="n">
-        <v>487.7446049049623</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>272.8142815317689</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7711117753170669</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>132.4154934357386</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L22" t="n">
-        <v>225.5335502187323</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M22" t="n">
-        <v>248.2875703003491</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N22" t="n">
-        <v>247.8733583658386</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O22" t="n">
-        <v>212.7730896392112</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P22" t="n">
-        <v>158.3058709957707</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q22" t="n">
-        <v>25.32492069547271</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q24" t="n">
-        <v>126.8730558045727</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>595.5275127043992</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>516.7753531914248</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>224.1074838346392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36922,13 +36922,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>321.223725260607</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37636,13 +37636,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>192.6371838218685</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>340.4953046390457</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
@@ -38113,7 +38113,7 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>88.0130327850741</v>
